--- a/biology/Botanique/Aphyllanthe_de_Montpellier/Aphyllanthe_de_Montpellier.xlsx
+++ b/biology/Botanique/Aphyllanthe_de_Montpellier/Aphyllanthe_de_Montpellier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphyllanthes monspeliensis
 L'aphyllanthe de Montpellier (Aphyllanthes monspeliensis), ou œillet bleu de Montpellier est une espèce de plante méditerranéenne. Elle appartient à la famille des Liliaceae selon la classification classique, ou à celle des Asparagaceae (optionnellement celle des Aphyllanthaceae) selon la classification phylogénétique APG II. Cette espèce est la seule actuellement acceptée du genre Aphyllanthes.
@@ -516,7 +528,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aphyllanthes juncea Salisb.
 Aphyllanthes cantabrica Bubani</t>
